--- a/layout_schematics_bom/Sensor_bom.xlsx
+++ b/layout_schematics_bom/Sensor_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B600F92-A07F-4458-87C0-E6457B8D4959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BAD8E-9F0C-4517-8B40-5EE6865B9459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,6 +250,9 @@
     <t>SW1,SW2,SW3,SW4,SW5,SW6,SW7,SW8,SW9</t>
   </si>
   <si>
+    <t>2.54mm,0.8mm dia_header</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -310,16 +313,14 @@
     <t>(5 - pin)2.54mm female header</t>
   </si>
   <si>
-    <t>1-103239-5 female header</t>
-  </si>
-  <si>
     <t>jumper5 (5 - pin)</t>
   </si>
   <si>
-    <t>(5-pin)2.54mm female header</t>
-  </si>
-  <si>
-    <t>2.54mm,0.8mm dia_header terminal block</t>
+    <t xml:space="preserve">PPTC051LFBN-RC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPTC151LFBN-RC </t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1456,10 @@
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>98</v>
@@ -1481,13 +1482,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1667,7 +1668,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -1683,7 +1684,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
       <c r="G28" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1695,22 +1696,22 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1721,22 +1722,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1747,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
